--- a/inst/extdata/PDexports(multiple_files)/T2_BLCA/240517_BCa_T2_11.xlsx
+++ b/inst/extdata/PDexports(multiple_files)/T2_BLCA/240517_BCa_T2_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedma\OneDrive\Έγγραφα\itern\ProtE\inst\extdata\PDexports(multiple_files)\T2_BLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBDFA3E-48E8-4562-8391-A6EB77DD9A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40950A-8C99-4933-A5FC-F50882D97B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t># AAs</t>
   </si>
@@ -37,9 +37,6 @@
     <t># Unique Peptides</t>
   </si>
   <si>
-    <t>10 kDa heat shock protein, mitochondrial OS=Homo sapiens GN=HSPE1 PE=1 SV=2 - [CH10_HUMAN]</t>
-  </si>
-  <si>
     <t>14-3-3 protein beta/alpha OS=Homo sapiens GN=YWHAB PE=1 SV=3 - [1433B_HUMAN]</t>
   </si>
   <si>
@@ -61,33 +58,9 @@
     <t>14-3-3 protein zeta/delta OS=Homo sapiens GN=YWHAZ PE=1 SV=1 - [1433Z_HUMAN]</t>
   </si>
   <si>
-    <t>15-hydroxyprostaglandin dehydrogenase [NAD(+)] OS=Homo sapiens GN=HPGD PE=1 SV=1 - [PGDH_HUMAN]</t>
-  </si>
-  <si>
-    <t>2,4-dienoyl-CoA reductase, mitochondrial OS=Homo sapiens GN=DECR1 PE=1 SV=1 - [DECR_HUMAN]</t>
-  </si>
-  <si>
-    <t>40S ribosomal protein S14 OS=Homo sapiens GN=RPS14 PE=1 SV=3 - [RS14_HUMAN]</t>
-  </si>
-  <si>
-    <t>40S ribosomal protein S18 OS=Homo sapiens GN=RPS18 PE=1 SV=3 - [RS18_HUMAN]</t>
-  </si>
-  <si>
-    <t>40S ribosomal protein SA OS=Homo sapiens GN=RPSA PE=1 SV=4 - [RSSA_HUMAN]</t>
-  </si>
-  <si>
-    <t>6-phosphogluconate dehydrogenase, decarboxylating OS=Homo sapiens GN=PGD PE=1 SV=3 - [6PGD_HUMAN]</t>
-  </si>
-  <si>
     <t>60 kDa heat shock protein, mitochondrial OS=Homo sapiens GN=HSPD1 PE=1 SV=2 - [CH60_HUMAN]</t>
   </si>
   <si>
-    <t>60S ribosomal protein L13 OS=Homo sapiens GN=RPL13 PE=1 SV=4 - [RL13_HUMAN]</t>
-  </si>
-  <si>
-    <t>60S ribosomal protein L7 OS=Homo sapiens GN=RPL7 PE=1 SV=1 - [RL7_HUMAN]</t>
-  </si>
-  <si>
     <t>78 kDa glucose-regulated protein OS=Homo sapiens GN=HSPA5 PE=1 SV=2 - [GRP78_HUMAN]</t>
   </si>
   <si>
@@ -112,9 +85,6 @@
     <t>Actin, cytoplasmic 1 OS=Homo sapiens GN=ACTB PE=1 SV=1 - [ACTB_HUMAN]</t>
   </si>
   <si>
-    <t>Adenylyl cyclase-associated protein 1 OS=Homo sapiens GN=CAP1 PE=1 SV=5 - [CAP1_HUMAN]</t>
-  </si>
-  <si>
     <t>Alpha-1-antichymotrypsin OS=Homo sapiens GN=SERPINA3 PE=1 SV=2 - [AACT_HUMAN]</t>
   </si>
   <si>
@@ -124,9 +94,6 @@
     <t>Alpha-1B-glycoprotein OS=Homo sapiens GN=A1BG PE=1 SV=4 - [A1BG_HUMAN]</t>
   </si>
   <si>
-    <t>Alpha-2-HS-glycoprotein OS=Homo sapiens GN=AHSG PE=1 SV=1 - [FETUA_HUMAN]</t>
-  </si>
-  <si>
     <t>Alpha-2-macroglobulin OS=Homo sapiens GN=A2M PE=1 SV=3 - [A2MG_HUMAN]</t>
   </si>
   <si>
@@ -151,9 +118,6 @@
     <t>Annexin A5 OS=Homo sapiens GN=ANXA5 PE=1 SV=2 - [ANXA5_HUMAN]</t>
   </si>
   <si>
-    <t>Antithrombin-III OS=Homo sapiens GN=SERPINC1 PE=1 SV=1 - [ANT3_HUMAN]</t>
-  </si>
-  <si>
     <t>Apolipoprotein A-I OS=Homo sapiens GN=APOA1 PE=1 SV=1 - [APOA1_HUMAN]</t>
   </si>
   <si>
@@ -181,12 +145,6 @@
     <t>Brain acid soluble protein 1 OS=Homo sapiens GN=BASP1 PE=1 SV=2 - [BASP1_HUMAN]</t>
   </si>
   <si>
-    <t>Caldesmon OS=Homo sapiens GN=CALD1 PE=1 SV=3 - [CALD1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Calmodulin OS=Homo sapiens GN=CALM1 PE=1 SV=2 - [CALM_HUMAN]</t>
-  </si>
-  <si>
     <t>Calponin-1 OS=Homo sapiens GN=CNN1 PE=1 SV=2 - [CNN1_HUMAN]</t>
   </si>
   <si>
@@ -202,15 +160,9 @@
     <t>Catalase OS=Homo sapiens GN=CAT PE=1 SV=3 - [CATA_HUMAN]</t>
   </si>
   <si>
-    <t>Cathepsin D OS=Homo sapiens GN=CTSD PE=1 SV=1 - [CATD_HUMAN]</t>
-  </si>
-  <si>
     <t>Ceruloplasmin OS=Homo sapiens GN=CP PE=1 SV=1 - [CERU_HUMAN]</t>
   </si>
   <si>
-    <t>Chloride intracellular channel protein 1 OS=Homo sapiens GN=CLIC1 PE=1 SV=4 - [CLIC1_HUMAN]</t>
-  </si>
-  <si>
     <t>Clathrin heavy chain 1 OS=Homo sapiens GN=CLTC PE=1 SV=5 - [CLH1_HUMAN]</t>
   </si>
   <si>
@@ -250,9 +202,6 @@
     <t>Complement factor B OS=Homo sapiens GN=CFB PE=1 SV=2 - [CFAB_HUMAN]</t>
   </si>
   <si>
-    <t>Complement factor H OS=Homo sapiens GN=CFH PE=1 SV=4 - [CFAH_HUMAN]</t>
-  </si>
-  <si>
     <t>Core histone macro-H2A.1 OS=Homo sapiens GN=H2AFY PE=1 SV=4 - [H2AY_HUMAN]</t>
   </si>
   <si>
@@ -262,9 +211,6 @@
     <t>Cysteine and glycine-rich protein 1 OS=Homo sapiens GN=CSRP1 PE=1 SV=3 - [CSRP1_HUMAN]</t>
   </si>
   <si>
-    <t>Cytochrome c oxidase subunit 4 isoform 1, mitochondrial OS=Homo sapiens GN=COX4I1 PE=1 SV=1 - [COX41_HUMAN]</t>
-  </si>
-  <si>
     <t>Cytosolic non-specific dipeptidase OS=Homo sapiens GN=CNDP2 PE=1 SV=2 - [CNDP2_HUMAN]</t>
   </si>
   <si>
@@ -283,15 +229,9 @@
     <t>Elongation factor 1-alpha 1 OS=Homo sapiens GN=EEF1A1 PE=1 SV=1 - [EF1A1_HUMAN]</t>
   </si>
   <si>
-    <t>Elongation factor 2 OS=Homo sapiens GN=EEF2 PE=1 SV=4 - [EF2_HUMAN]</t>
-  </si>
-  <si>
     <t>Endoplasmin OS=Homo sapiens GN=HSP90B1 PE=1 SV=1 - [ENPL_HUMAN]</t>
   </si>
   <si>
-    <t>Eukaryotic initiation factor 4A-I OS=Homo sapiens GN=EIF4A1 PE=1 SV=1 - [IF4A1_HUMAN]</t>
-  </si>
-  <si>
     <t>Ezrin OS=Homo sapiens GN=EZR PE=1 SV=4 - [EZRI_HUMAN]</t>
   </si>
   <si>
@@ -316,12 +256,6 @@
     <t>Fructose-bisphosphate aldolase A OS=Homo sapiens GN=ALDOA PE=1 SV=2 - [ALDOA_HUMAN]</t>
   </si>
   <si>
-    <t>GTP-binding nuclear protein Ran OS=Homo sapiens GN=RAN PE=1 SV=3 - [RAN_HUMAN]</t>
-  </si>
-  <si>
-    <t>Gamma-synuclein OS=Homo sapiens GN=SNCG PE=1 SV=2 - [SYUG_HUMAN]</t>
-  </si>
-  <si>
     <t>Gelsolin OS=Homo sapiens GN=GSN PE=1 SV=1 - [GELS_HUMAN]</t>
   </si>
   <si>
@@ -334,12 +268,6 @@
     <t>Glyceraldehyde-3-phosphate dehydrogenase OS=Homo sapiens GN=GAPDH PE=1 SV=3 - [G3P_HUMAN]</t>
   </si>
   <si>
-    <t>HLA class I histocompatibility antigen, B-57 alpha chain OS=Homo sapiens GN=HLA-B PE=1 SV=1 - [1B57_HUMAN]</t>
-  </si>
-  <si>
-    <t>HLA class I histocompatibility antigen, Cw-2 alpha chain OS=Homo sapiens GN=HLA-C PE=1 SV=1 - [1C02_HUMAN]</t>
-  </si>
-  <si>
     <t>Haptoglobin OS=Homo sapiens GN=HP PE=1 SV=1 - [HPT_HUMAN]</t>
   </si>
   <si>
@@ -373,12 +301,6 @@
     <t>Hemopexin OS=Homo sapiens GN=HPX PE=1 SV=2 - [HEMO_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoprotein A1 OS=Homo sapiens GN=HNRNPA1 PE=1 SV=5 - [ROA1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Heterogeneous nuclear ribonucleoprotein H OS=Homo sapiens GN=HNRNPH1 PE=1 SV=4 - [HNRH1_HUMAN]</t>
-  </si>
-  <si>
     <t>Heterogeneous nuclear ribonucleoprotein K OS=Homo sapiens GN=HNRNPK PE=1 SV=1 - [HNRPK_HUMAN]</t>
   </si>
   <si>
@@ -433,9 +355,6 @@
     <t>Ig kappa chain C region OS=Homo sapiens GN=IGKC PE=1 SV=1 - [IGKC_HUMAN]</t>
   </si>
   <si>
-    <t>Ig lambda chain V-III region LOI OS=Homo sapiens PE=1 SV=1 - [LV302_HUMAN]</t>
-  </si>
-  <si>
     <t>Ig lambda-2 chain C regions OS=Homo sapiens GN=IGLC2 PE=1 SV=1 - [LAC2_HUMAN]</t>
   </si>
   <si>
@@ -478,9 +397,6 @@
     <t>Keratin, type I cytoskeletal 19 OS=Homo sapiens GN=KRT19 PE=1 SV=4 - [K1C19_HUMAN]</t>
   </si>
   <si>
-    <t>Keratin, type II cytoskeletal 1 OS=Homo sapiens GN=KRT1 PE=1 SV=6 - [K2C1_HUMAN]</t>
-  </si>
-  <si>
     <t>Keratin, type II cytoskeletal 2 epidermal OS=Homo sapiens GN=KRT2 PE=1 SV=2 - [K22E_HUMAN]</t>
   </si>
   <si>
@@ -502,18 +418,12 @@
     <t>Keratin, type II cytoskeletal 8 OS=Homo sapiens GN=KRT8 PE=1 SV=7 - [K2C8_HUMAN]</t>
   </si>
   <si>
-    <t>Kininogen-1 OS=Homo sapiens GN=KNG1 PE=1 SV=2 - [KNG1_HUMAN]</t>
-  </si>
-  <si>
     <t>L-lactate dehydrogenase A chain OS=Homo sapiens GN=LDHA PE=1 SV=2 - [LDHA_HUMAN]</t>
   </si>
   <si>
     <t>L-lactate dehydrogenase B chain OS=Homo sapiens GN=LDHB PE=1 SV=2 - [LDHB_HUMAN]</t>
   </si>
   <si>
-    <t>Lamin-B1 OS=Homo sapiens GN=LMNB1 PE=1 SV=2 - [LMNB1_HUMAN]</t>
-  </si>
-  <si>
     <t>Lumican OS=Homo sapiens GN=LUM PE=1 SV=2 - [LUM_HUMAN]</t>
   </si>
   <si>
@@ -523,12 +433,6 @@
     <t>Macrophage-capping protein OS=Homo sapiens GN=CAPG PE=1 SV=2 - [CAPG_HUMAN]</t>
   </si>
   <si>
-    <t>Malate dehydrogenase, cytoplasmic OS=Homo sapiens GN=MDH1 PE=1 SV=4 - [MDHC_HUMAN]</t>
-  </si>
-  <si>
-    <t>Malate dehydrogenase, mitochondrial OS=Homo sapiens GN=MDH2 PE=1 SV=3 - [MDHM_HUMAN]</t>
-  </si>
-  <si>
     <t>Mimecan OS=Homo sapiens GN=OGN PE=1 SV=1 - [MIME_HUMAN]</t>
   </si>
   <si>
@@ -550,21 +454,6 @@
     <t>Myosin-9 OS=Homo sapiens GN=MYH9 PE=1 SV=4 - [MYH9_HUMAN]</t>
   </si>
   <si>
-    <t>Myristoylated alanine-rich C-kinase substrate OS=Homo sapiens GN=MARCKS PE=1 SV=4 - [MARCS_HUMAN]</t>
-  </si>
-  <si>
-    <t>Neuroblast differentiation-associated protein AHNAK OS=Homo sapiens GN=AHNAK PE=1 SV=2 - [AHNK_HUMAN]</t>
-  </si>
-  <si>
-    <t>Nucleophosmin OS=Homo sapiens GN=NPM1 PE=1 SV=2 - [NPM_HUMAN]</t>
-  </si>
-  <si>
-    <t>Nucleoside diphosphate kinase A OS=Homo sapiens GN=NME1 PE=1 SV=1 - [NDKA_HUMAN]</t>
-  </si>
-  <si>
-    <t>O00299</t>
-  </si>
-  <si>
     <t>O43707</t>
   </si>
   <si>
@@ -577,9 +466,6 @@
     <t>O75874</t>
   </si>
   <si>
-    <t>O76070</t>
-  </si>
-  <si>
     <t>P00338</t>
   </si>
   <si>
@@ -601,9 +487,6 @@
     <t>P00918</t>
   </si>
   <si>
-    <t>P01008</t>
-  </si>
-  <si>
     <t>P01009</t>
   </si>
   <si>
@@ -616,9 +499,6 @@
     <t>P01024</t>
   </si>
   <si>
-    <t>P01042</t>
-  </si>
-  <si>
     <t>P01834</t>
   </si>
   <si>
@@ -676,21 +556,12 @@
     <t>P02730</t>
   </si>
   <si>
-    <t>P02743</t>
-  </si>
-  <si>
     <t>P02751</t>
   </si>
   <si>
-    <t>P02765</t>
-  </si>
-  <si>
     <t>P02768</t>
   </si>
   <si>
-    <t>P02774</t>
-  </si>
-  <si>
     <t>P02787</t>
   </si>
   <si>
@@ -712,15 +583,9 @@
     <t>P04114</t>
   </si>
   <si>
-    <t>P04179</t>
-  </si>
-  <si>
     <t>P04217</t>
   </si>
   <si>
-    <t>P04264</t>
-  </si>
-  <si>
     <t>P04406</t>
   </si>
   <si>
@@ -730,9 +595,6 @@
     <t>P05141</t>
   </si>
   <si>
-    <t>P05155</t>
-  </si>
-  <si>
     <t>P05783</t>
   </si>
   <si>
@@ -748,9 +610,6 @@
     <t>P06702</t>
   </si>
   <si>
-    <t>P06703</t>
-  </si>
-  <si>
     <t>P06727</t>
   </si>
   <si>
@@ -760,9 +619,6 @@
     <t>P06744</t>
   </si>
   <si>
-    <t>P06748</t>
-  </si>
-  <si>
     <t>P06753</t>
   </si>
   <si>
@@ -775,9 +631,6 @@
     <t>P07237</t>
   </si>
   <si>
-    <t>P07339</t>
-  </si>
-  <si>
     <t>P07355</t>
   </si>
   <si>
@@ -802,9 +655,6 @@
     <t>P08238</t>
   </si>
   <si>
-    <t>P08603</t>
-  </si>
-  <si>
     <t>P08670</t>
   </si>
   <si>
@@ -820,9 +670,6 @@
     <t>P08779</t>
   </si>
   <si>
-    <t>P08865</t>
-  </si>
-  <si>
     <t>P09211</t>
   </si>
   <si>
@@ -832,9 +679,6 @@
     <t>P09525</t>
   </si>
   <si>
-    <t>P09651</t>
-  </si>
-  <si>
     <t>P0C0L4</t>
   </si>
   <si>
@@ -880,12 +724,6 @@
     <t>P12814</t>
   </si>
   <si>
-    <t>P13073</t>
-  </si>
-  <si>
-    <t>P13639</t>
-  </si>
-  <si>
     <t>P13645</t>
   </si>
   <si>
@@ -907,12 +745,6 @@
     <t>P15311</t>
   </si>
   <si>
-    <t>P15428</t>
-  </si>
-  <si>
-    <t>P15531</t>
-  </si>
-  <si>
     <t>P16401</t>
   </si>
   <si>
@@ -922,18 +754,9 @@
     <t>P17661</t>
   </si>
   <si>
-    <t>P18124</t>
-  </si>
-  <si>
     <t>P18206</t>
   </si>
   <si>
-    <t>P18465</t>
-  </si>
-  <si>
-    <t>P18669</t>
-  </si>
-  <si>
     <t>P19013</t>
   </si>
   <si>
@@ -946,9 +769,6 @@
     <t>P19827</t>
   </si>
   <si>
-    <t>P20700</t>
-  </si>
-  <si>
     <t>P20774</t>
   </si>
   <si>
@@ -964,9 +784,6 @@
     <t>P22626</t>
   </si>
   <si>
-    <t>P23246</t>
-  </si>
-  <si>
     <t>P23528</t>
   </si>
   <si>
@@ -982,9 +799,6 @@
     <t>P26038</t>
   </si>
   <si>
-    <t>P26373</t>
-  </si>
-  <si>
     <t>P27348</t>
   </si>
   <si>
@@ -994,9 +808,6 @@
     <t>P29401</t>
   </si>
   <si>
-    <t>P29966</t>
-  </si>
-  <si>
     <t>P30043</t>
   </si>
   <si>
@@ -1006,12 +817,6 @@
     <t>P30101</t>
   </si>
   <si>
-    <t>P30501</t>
-  </si>
-  <si>
-    <t>P31943</t>
-  </si>
-  <si>
     <t>P31946</t>
   </si>
   <si>
@@ -1036,24 +841,9 @@
     <t>P37802</t>
   </si>
   <si>
-    <t>P37837</t>
-  </si>
-  <si>
-    <t>P38646</t>
-  </si>
-  <si>
     <t>P40121</t>
   </si>
   <si>
-    <t>P40925</t>
-  </si>
-  <si>
-    <t>P40926</t>
-  </si>
-  <si>
-    <t>P46940</t>
-  </si>
-  <si>
     <t>P51884</t>
   </si>
   <si>
@@ -1063,12 +853,6 @@
     <t>P51911</t>
   </si>
   <si>
-    <t>P52209</t>
-  </si>
-  <si>
-    <t>P52565</t>
-  </si>
-  <si>
     <t>P60174</t>
   </si>
   <si>
@@ -1078,42 +862,21 @@
     <t>P60709</t>
   </si>
   <si>
-    <t>P60842</t>
-  </si>
-  <si>
-    <t>P61604</t>
-  </si>
-  <si>
     <t>P61978</t>
   </si>
   <si>
     <t>P61981</t>
   </si>
   <si>
-    <t>P62158</t>
-  </si>
-  <si>
     <t>P62258</t>
   </si>
   <si>
-    <t>P62263</t>
-  </si>
-  <si>
-    <t>P62269</t>
-  </si>
-  <si>
     <t>P62736</t>
   </si>
   <si>
     <t>P62805</t>
   </si>
   <si>
-    <t>P62826</t>
-  </si>
-  <si>
-    <t>P62937</t>
-  </si>
-  <si>
     <t>P63104</t>
   </si>
   <si>
@@ -1141,15 +904,9 @@
     <t>P80723</t>
   </si>
   <si>
-    <t>P80748</t>
-  </si>
-  <si>
     <t>POTE ankyrin domain family member E OS=Homo sapiens GN=POTEE PE=1 SV=3 - [POTEE_HUMAN]</t>
   </si>
   <si>
-    <t>Peptidyl-prolyl cis-trans isomerase A OS=Homo sapiens GN=PPIA PE=1 SV=2 - [PPIA_HUMAN]</t>
-  </si>
-  <si>
     <t>Peroxiredoxin-1 OS=Homo sapiens GN=PRDX1 PE=1 SV=1 - [PRDX1_HUMAN]</t>
   </si>
   <si>
@@ -1162,24 +919,12 @@
     <t>Phosphoglycerate kinase 1 OS=Homo sapiens GN=PGK1 PE=1 SV=3 - [PGK1_HUMAN]</t>
   </si>
   <si>
-    <t>Phosphoglycerate mutase 1 OS=Homo sapiens GN=PGAM1 PE=1 SV=2 - [PGAM1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Plasma protease C1 inhibitor OS=Homo sapiens GN=SERPING1 PE=1 SV=2 - [IC1_HUMAN]</t>
-  </si>
-  <si>
     <t>Plastin-2 OS=Homo sapiens GN=LCP1 PE=1 SV=6 - [PLSL_HUMAN]</t>
   </si>
   <si>
     <t>Plectin OS=Homo sapiens GN=PLEC PE=1 SV=3 - [PLEC_HUMAN]</t>
   </si>
   <si>
-    <t>Poly(rC)-binding protein 1 OS=Homo sapiens GN=PCBP1 PE=1 SV=2 - [PCBP1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Polymerase I and transcript release factor OS=Homo sapiens GN=PTRF PE=1 SV=1 - [PTRF_HUMAN]</t>
-  </si>
-  <si>
     <t>Polyubiquitin-C OS=Homo sapiens GN=UBC PE=1 SV=3 - [UBC_HUMAN]</t>
   </si>
   <si>
@@ -1189,21 +934,12 @@
     <t>Profilin-1 OS=Homo sapiens GN=PFN1 PE=1 SV=2 - [PROF1_HUMAN]</t>
   </si>
   <si>
-    <t>Prohibitin-2 OS=Homo sapiens GN=PHB2 PE=1 SV=2 - [PHB2_HUMAN]</t>
-  </si>
-  <si>
     <t>Prolargin OS=Homo sapiens GN=PRELP PE=1 SV=1 - [PRELP_HUMAN]</t>
   </si>
   <si>
-    <t>Proteasome activator complex subunit 1 OS=Homo sapiens GN=PSME1 PE=1 SV=1 - [PSME1_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein S100-A11 OS=Homo sapiens GN=S100A11 PE=1 SV=2 - [S10AB_HUMAN]</t>
   </si>
   <si>
-    <t>Protein S100-A6 OS=Homo sapiens GN=S100A6 PE=1 SV=1 - [S10A6_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein S100-A9 OS=Homo sapiens GN=S100A9 PE=1 SV=1 - [S10A9_HUMAN]</t>
   </si>
   <si>
@@ -1213,15 +949,9 @@
     <t>Protein disulfide-isomerase A3 OS=Homo sapiens GN=PDIA3 PE=1 SV=4 - [PDIA3_HUMAN]</t>
   </si>
   <si>
-    <t>Protein disulfide-isomerase A6 OS=Homo sapiens GN=PDIA6 PE=1 SV=1 - [PDIA6_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein disulfide-isomerase OS=Homo sapiens GN=P4HB PE=1 SV=3 - [PDIA1_HUMAN]</t>
   </si>
   <si>
-    <t>Putative Ras-related protein Rab-1C OS=Homo sapiens GN=RAB1C PE=5 SV=2 - [RAB1C_HUMAN]</t>
-  </si>
-  <si>
     <t>Pyruvate kinase PKM OS=Homo sapiens GN=PKM PE=1 SV=4 - [KPYM_HUMAN]</t>
   </si>
   <si>
@@ -1231,9 +961,6 @@
     <t>Q00839</t>
   </si>
   <si>
-    <t>Q01518</t>
-  </si>
-  <si>
     <t>Q01995</t>
   </si>
   <si>
@@ -1243,81 +970,39 @@
     <t>Q04917</t>
   </si>
   <si>
-    <t>Q05682</t>
-  </si>
-  <si>
     <t>Q05707</t>
   </si>
   <si>
-    <t>Q06323</t>
-  </si>
-  <si>
     <t>Q06830</t>
   </si>
   <si>
-    <t>Q09666</t>
-  </si>
-  <si>
     <t>Q13268</t>
   </si>
   <si>
     <t>Q14624</t>
   </si>
   <si>
-    <t>Q15084</t>
-  </si>
-  <si>
     <t>Q15149</t>
   </si>
   <si>
-    <t>Q15365</t>
-  </si>
-  <si>
-    <t>Q15582</t>
-  </si>
-  <si>
-    <t>Q15661</t>
-  </si>
-  <si>
-    <t>Q16698</t>
-  </si>
-  <si>
     <t>Q5XKE5</t>
   </si>
   <si>
-    <t>Q6NZI2</t>
-  </si>
-  <si>
     <t>Q6S8J3</t>
   </si>
   <si>
     <t>Q8IUE6</t>
   </si>
   <si>
-    <t>Q92928</t>
-  </si>
-  <si>
     <t>Q96KK5</t>
   </si>
   <si>
     <t>Q96KP4</t>
   </si>
   <si>
-    <t>Q99623</t>
-  </si>
-  <si>
     <t>Q9BQE3</t>
   </si>
   <si>
-    <t>Q9Y490</t>
-  </si>
-  <si>
-    <t>Ras GTPase-activating-like protein IQGAP1 OS=Homo sapiens GN=IQGAP1 PE=1 SV=1 - [IQGA1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Rho GDP-dissociation inhibitor 1 OS=Homo sapiens GN=ARHGDIA PE=1 SV=3 - [GDIR1_HUMAN]</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -1327,27 +1012,6 @@
     <t>Serum albumin OS=Homo sapiens GN=ALB PE=1 SV=2 - [ALBU_HUMAN]</t>
   </si>
   <si>
-    <t>Serum amyloid P-component OS=Homo sapiens GN=APCS PE=1 SV=2 - [SAMP_HUMAN]</t>
-  </si>
-  <si>
-    <t>Splicing factor, proline- and glutamine-rich OS=Homo sapiens GN=SFPQ PE=1 SV=2 - [SFPQ_HUMAN]</t>
-  </si>
-  <si>
-    <t>Stress-70 protein, mitochondrial OS=Homo sapiens GN=HSPA9 PE=1 SV=2 - [GRP75_HUMAN]</t>
-  </si>
-  <si>
-    <t>Superoxide dismutase [Mn], mitochondrial OS=Homo sapiens GN=SOD2 PE=1 SV=2 - [SODM_HUMAN]</t>
-  </si>
-  <si>
-    <t>Talin-1 OS=Homo sapiens GN=TLN1 PE=1 SV=3 - [TLN1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Transaldolase OS=Homo sapiens GN=TALDO1 PE=1 SV=2 - [TALDO_HUMAN]</t>
-  </si>
-  <si>
-    <t>Transforming growth factor-beta-induced protein ig-h3 OS=Homo sapiens GN=TGFBI PE=1 SV=1 - [BGH3_HUMAN]</t>
-  </si>
-  <si>
     <t>Transgelin OS=Homo sapiens GN=TAGLN PE=1 SV=4 - [TAGL_HUMAN]</t>
   </si>
   <si>
@@ -1372,9 +1036,6 @@
     <t>Tropomyosin beta chain OS=Homo sapiens GN=TPM2 PE=1 SV=1 - [TPM2_HUMAN]</t>
   </si>
   <si>
-    <t>Tryptase alpha/beta-1 OS=Homo sapiens GN=TPSAB1 PE=1 SV=1 - [TRYB1_HUMAN]</t>
-  </si>
-  <si>
     <t>Tubulin alpha-1C chain OS=Homo sapiens GN=TUBA1C PE=1 SV=1 - [TBA1C_HUMAN]</t>
   </si>
   <si>
@@ -1388,9 +1049,6 @@
   </si>
   <si>
     <t>Vinculin OS=Homo sapiens GN=VCL PE=1 SV=4 - [VINC_HUMAN]</t>
-  </si>
-  <si>
-    <t>Vitamin D-binding protein OS=Homo sapiens GN=GC PE=1 SV=1 - [VTDB_HUMAN]</t>
   </si>
   <si>
     <t>Vitronectin OS=Homo sapiens GN=VTN PE=1 SV=1 - [VTNC_HUMAN]</t>
@@ -1896,10 +1554,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226:XFD815"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="O229" sqref="A169:O229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1918,16 +1576,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1942,24 +1600,24 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3">
         <v>1524.90426361561</v>
@@ -1994,10 +1652,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3">
         <v>1408.1424536704999</v>
@@ -2032,10 +1690,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>434</v>
+        <v>329</v>
       </c>
       <c r="C4" s="3">
         <v>1387.31265032291</v>
@@ -2070,10 +1728,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3">
         <v>886.48567366600003</v>
@@ -2108,10 +1766,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>607.78136658668495</v>
@@ -2146,10 +1804,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>463.18900251388601</v>
@@ -2184,10 +1842,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>415.72550320625299</v>
@@ -2222,10 +1880,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3">
         <v>395.48257625103003</v>
@@ -2260,10 +1918,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3">
         <v>372.55989384651201</v>
@@ -2298,10 +1956,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="C11" s="3">
         <v>370.15336608886702</v>
@@ -2336,10 +1994,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>363.94920527935</v>
@@ -2374,10 +2032,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3">
         <v>351.39868426322897</v>
@@ -2412,10 +2070,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>323.79140126705198</v>
@@ -2450,10 +2108,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="C15" s="3">
         <v>314.664767384529</v>
@@ -2488,10 +2146,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3">
         <v>306.54646897316002</v>
@@ -2526,10 +2184,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3">
         <v>288.71324074268301</v>
@@ -2564,10 +2222,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>250.39179110526999</v>
@@ -2602,10 +2260,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="C19" s="3">
         <v>241.66387784481</v>
@@ -2640,10 +2298,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="C20" s="3">
         <v>240.175983548164</v>
@@ -2678,10 +2336,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3">
         <v>235.027614355087</v>
@@ -2716,10 +2374,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3">
         <v>224.48354721069299</v>
@@ -2754,10 +2412,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3">
         <v>221.270799160004</v>
@@ -2792,10 +2450,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3">
         <v>214.67745506763501</v>
@@ -2830,10 +2488,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="C25" s="3">
         <v>212.406116843224</v>
@@ -2868,10 +2526,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>449</v>
+        <v>337</v>
       </c>
       <c r="C26" s="3">
         <v>211.044397354126</v>
@@ -2906,10 +2564,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C27" s="3">
         <v>207.298900723457</v>
@@ -2944,10 +2602,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3">
         <v>199.333262443542</v>
@@ -2982,10 +2640,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="C29" s="3">
         <v>184.54468238353701</v>
@@ -3020,10 +2678,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3">
         <v>182.243408203125</v>
@@ -3058,10 +2716,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3">
         <v>179.84479534626001</v>
@@ -3096,10 +2754,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3">
         <v>176.26980900764499</v>
@@ -3134,10 +2792,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C33" s="3">
         <v>173.27239906787901</v>
@@ -3172,10 +2830,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>173.169184207916</v>
@@ -3210,10 +2868,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C35" s="3">
         <v>171.055727958679</v>
@@ -3248,10 +2906,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C36" s="3">
         <v>166.66025722026799</v>
@@ -3286,10 +2944,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>445</v>
+        <v>333</v>
       </c>
       <c r="C37" s="3">
         <v>164.83705377578701</v>
@@ -3324,10 +2982,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3">
         <v>161.08812558650999</v>
@@ -3362,10 +3020,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3">
         <v>159.72007751464801</v>
@@ -3400,10 +3058,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="C40" s="3">
         <v>159.266686797142</v>
@@ -3438,10 +3096,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C41" s="3">
         <v>159.123177289963</v>
@@ -3476,10 +3134,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C42" s="3">
         <v>156.07397484779401</v>
@@ -3514,10 +3172,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3">
         <v>153.07423508167301</v>
@@ -3552,10 +3210,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="C44" s="3">
         <v>147.895949959755</v>
@@ -3590,10 +3248,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C45" s="3">
         <v>142.21024358272601</v>
@@ -3628,10 +3286,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C46" s="3">
         <v>141.87573838233899</v>
@@ -3666,10 +3324,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3">
         <v>140.927923440933</v>
@@ -3704,10 +3362,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C48" s="3">
         <v>136.813942670822</v>
@@ -3742,10 +3400,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C49" s="3">
         <v>131.60464346408801</v>
@@ -3780,10 +3438,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3">
         <v>131.130791783333</v>
@@ -3818,10 +3476,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="C51" s="3">
         <v>129.87657701969101</v>
@@ -3856,10 +3514,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="C52" s="3">
         <v>129.01788485050201</v>
@@ -3894,10 +3552,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C53" s="3">
         <v>128.36360847949999</v>
@@ -3932,10 +3590,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="C54" s="3">
         <v>127.645781755447</v>
@@ -3970,10 +3628,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C55" s="3">
         <v>127.231888532639</v>
@@ -4008,10 +3666,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>448</v>
+        <v>336</v>
       </c>
       <c r="C56" s="3">
         <v>124.70995974540701</v>
@@ -4046,10 +3704,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="3">
         <v>123.070114850998</v>
@@ -4084,10 +3742,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C58" s="3">
         <v>122.893040537834</v>
@@ -4122,10 +3780,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C59" s="3">
         <v>122.287905216217</v>
@@ -4160,10 +3818,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C60" s="3">
         <v>120.220404863358</v>
@@ -4198,10 +3856,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C61" s="3">
         <v>116.624491453171</v>
@@ -4236,10 +3894,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C62" s="3">
         <v>116.37017595768</v>
@@ -4274,10 +3932,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C63" s="3">
         <v>113.795963168144</v>
@@ -4312,10 +3970,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C64" s="3">
         <v>112.81593811512001</v>
@@ -4350,10 +4008,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C65" s="3">
         <v>112.109282374382</v>
@@ -4388,10 +4046,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C66" s="3">
         <v>110.402515649796</v>
@@ -4426,10 +4084,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C67" s="3">
         <v>110.00777590274799</v>
@@ -4464,10 +4122,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C68" s="3">
         <v>109.693640828133</v>
@@ -4502,10 +4160,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="C69" s="3">
         <v>107.53352642059301</v>
@@ -4540,10 +4198,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C70" s="3">
         <v>107.160019636154</v>
@@ -4578,10 +4236,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C71" s="3">
         <v>107.08642578125</v>
@@ -4616,10 +4274,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C72" s="3">
         <v>106.77971482276899</v>
@@ -4654,10 +4312,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C73" s="3">
         <v>104.79241192340901</v>
@@ -4692,10 +4350,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C74" s="3">
         <v>101.83374798297901</v>
@@ -4730,10 +4388,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C75" s="3">
         <v>101.110169172287</v>
@@ -4768,10 +4426,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" s="3">
         <v>100.59265995025601</v>
@@ -4806,10 +4464,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C77" s="3">
         <v>95.461183786392198</v>
@@ -4844,10 +4502,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3">
         <v>94.829834699630695</v>
@@ -4882,10 +4540,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C79" s="3">
         <v>93.5583575963974</v>
@@ -4920,10 +4578,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C80" s="3">
         <v>93.032235741615295</v>
@@ -4958,10 +4616,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="3">
         <v>92.900990724563599</v>
@@ -4996,10 +4654,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="C82" s="3">
         <v>90.658975720405607</v>
@@ -5034,10 +4692,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>447</v>
+        <v>335</v>
       </c>
       <c r="C83" s="3">
         <v>90.475921750068693</v>
@@ -5072,10 +4730,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C84" s="3">
         <v>90.142641663551302</v>
@@ -5110,10 +4768,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3">
         <v>89.859607934951796</v>
@@ -5148,10 +4806,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C86" s="3">
         <v>89.840799212455806</v>
@@ -5186,10 +4844,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C87" s="3">
         <v>86.906170964240999</v>
@@ -5224,10 +4882,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="3">
         <v>84.452631950378404</v>
@@ -5262,10 +4920,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="3">
         <v>84.296298146247906</v>
@@ -5300,10 +4958,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C90" s="3">
         <v>82.602990269661007</v>
@@ -5338,10 +4996,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="3">
         <v>82.367094755172701</v>
@@ -5376,10 +5034,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="C92" s="3">
         <v>80.194799780845599</v>
@@ -5414,10 +5072,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C93" s="3">
         <v>79.702695131301894</v>
@@ -5452,10 +5110,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C94" s="3">
         <v>79.504372358322101</v>
@@ -5490,10 +5148,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C95" s="3">
         <v>77.829623818397494</v>
@@ -5528,10 +5186,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="C96" s="3">
         <v>76.644806265830994</v>
@@ -5566,10 +5224,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C97" s="3">
         <v>75.728989958763094</v>
@@ -5604,10 +5262,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C98" s="3">
         <v>74.594322085380597</v>
@@ -5642,10 +5300,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C99" s="3">
         <v>73.9514111280441</v>
@@ -5680,10 +5338,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="C100" s="3">
         <v>73.865115761756897</v>
@@ -5718,10 +5376,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3">
         <v>73.300415158271804</v>
@@ -5756,10 +5414,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C102" s="3">
         <v>72.946313619613605</v>
@@ -5794,10 +5452,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C103" s="3">
         <v>72.439973950386005</v>
@@ -5832,10 +5490,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C104" s="3">
         <v>71.867164134979205</v>
@@ -5870,10 +5528,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>370</v>
+        <v>291</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C105" s="3">
         <v>71.674854636192293</v>
@@ -5908,10 +5566,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C106" s="3">
         <v>69.782356262207003</v>
@@ -5946,10 +5604,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" s="3">
         <v>69.537241697311401</v>
@@ -5984,10 +5642,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C108" s="3">
         <v>68.801523447036701</v>
@@ -6022,10 +5680,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C109" s="3">
         <v>66.938694119453402</v>
@@ -6060,10 +5718,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C110" s="3">
         <v>65.507425785064697</v>
@@ -6098,10 +5756,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C111" s="3">
         <v>64.742436170578003</v>
@@ -6136,10 +5794,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="C112" s="3">
         <v>63.767588138580301</v>
@@ -6174,10 +5832,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C113" s="3">
         <v>62.588436365127599</v>
@@ -6212,10 +5870,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="C114" s="3">
         <v>61.555157303810098</v>
@@ -6250,10 +5908,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C115" s="3">
         <v>61.531451702117899</v>
@@ -6288,10 +5946,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C116" s="3">
         <v>60.552601575851398</v>
@@ -6326,10 +5984,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C117" s="3">
         <v>59.7565181255341</v>
@@ -6364,10 +6022,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="C118" s="3">
         <v>59.459820747375502</v>
@@ -6402,10 +6060,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C119" s="3">
         <v>59.155567765235901</v>
@@ -6440,10 +6098,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C120" s="3">
         <v>58.698137998580897</v>
@@ -6478,10 +6136,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="C121" s="3">
         <v>56.914732694625897</v>
@@ -6516,10 +6174,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C122" s="3">
         <v>54.396673083305402</v>
@@ -6554,10 +6212,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C123" s="3">
         <v>54.305170416831999</v>
@@ -6592,10 +6250,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C124" s="3">
         <v>54.120175600051901</v>
@@ -6630,10 +6288,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="C125" s="3">
         <v>53.390416741371197</v>
@@ -6668,10 +6326,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="C126" s="3">
         <v>53.234979987144499</v>
@@ -6706,10 +6364,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C127" s="3">
         <v>53.040805339813197</v>
@@ -6744,10 +6402,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="C128" s="3">
         <v>51.781700372695902</v>
@@ -6782,10 +6440,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="C129" s="3">
         <v>51.2501591444016</v>
@@ -6820,10 +6478,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C130" s="3">
         <v>51.004562377929702</v>
@@ -6858,10 +6516,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C131" s="3">
         <v>50.6975148916245</v>
@@ -6896,10 +6554,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C132" s="3">
         <v>50.672572970390299</v>
@@ -6934,10 +6592,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C133" s="3">
         <v>49.633875370025599</v>
@@ -6972,10 +6630,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C134" s="3">
         <v>49.573663353919997</v>
@@ -7010,10 +6668,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C135" s="3">
         <v>49.310812711715698</v>
@@ -7048,10 +6706,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C136" s="3">
         <v>48.958082079887397</v>
@@ -7086,10 +6744,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>412</v>
+        <v>318</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C137" s="3">
         <v>48.949072003364599</v>
@@ -7124,10 +6782,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C138" s="3">
         <v>48.676807641982997</v>
@@ -7162,10 +6820,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C139" s="3">
         <v>48.249009490013101</v>
@@ -7200,10 +6858,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C140" s="3">
         <v>47.618152141571002</v>
@@ -7238,10 +6896,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="C141" s="3">
         <v>47.453930735588102</v>
@@ -7276,10 +6934,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C142" s="3">
         <v>47.416534185409503</v>
@@ -7314,10 +6972,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="C143" s="3">
         <v>47.144143342971802</v>
@@ -7352,10 +7010,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C144" s="3">
         <v>45.755438446998603</v>
@@ -7390,10 +7048,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C145" s="3">
         <v>44.2587857246399</v>
@@ -7428,10 +7086,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C146" s="3">
         <v>44.014513969421401</v>
@@ -7466,10 +7124,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C147" s="3">
         <v>43.9361332654953</v>
@@ -7504,10 +7162,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C148" s="3">
         <v>43.572242856025703</v>
@@ -7542,10 +7200,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C149" s="3">
         <v>42.799811363220201</v>
@@ -7580,10 +7238,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C150" s="3">
         <v>42.3255344629288</v>
@@ -7618,10 +7276,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C151" s="3">
         <v>41.6479780673981</v>
@@ -7656,10 +7314,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C152" s="3">
         <v>41.427942514419598</v>
@@ -7694,10 +7352,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C153" s="3">
         <v>41.350602984428399</v>
@@ -7732,10 +7390,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C154" s="3">
         <v>40.809964537620502</v>
@@ -7770,10 +7428,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C155" s="3">
         <v>39.410474777221701</v>
@@ -7808,10 +7466,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="C156" s="3">
         <v>39.059650182723999</v>
@@ -7846,10 +7504,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C157" s="3">
         <v>39.051895976066596</v>
@@ -7884,10 +7542,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C158" s="3">
         <v>38.537796616554303</v>
@@ -7922,10 +7580,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C159" s="3">
         <v>38.080070972442599</v>
@@ -7960,10 +7618,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C160" s="3">
         <v>38.0087020397186</v>
@@ -7998,10 +7656,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C161" s="3">
         <v>37.408635377883897</v>
@@ -8036,10 +7694,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
       <c r="C162" s="3">
         <v>37.121184825897203</v>
@@ -8074,10 +7732,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C163" s="3">
         <v>35.7819133996964</v>
@@ -8112,10 +7770,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C164" s="3">
         <v>35.433111786842296</v>
@@ -8150,10 +7808,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C165" s="3">
         <v>35.057094216346698</v>
@@ -8188,10 +7846,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C166" s="3">
         <v>34.511477589607203</v>
@@ -8226,10 +7884,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C167" s="3">
         <v>33.040409088134801</v>
@@ -8264,10 +7922,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C168" s="3">
         <v>33.006798624992399</v>
@@ -8298,2172 +7956,6 @@
       </c>
       <c r="L168" s="3">
         <v>8.08935546875</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C169" s="3">
-        <v>32.854750156402602</v>
-      </c>
-      <c r="D169" s="4">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="E169" s="5">
-        <v>1</v>
-      </c>
-      <c r="F169" s="5">
-        <v>2</v>
-      </c>
-      <c r="G169" s="5">
-        <v>2</v>
-      </c>
-      <c r="H169" s="5">
-        <v>18</v>
-      </c>
-      <c r="I169" s="6">
-        <v>66674949.84375</v>
-      </c>
-      <c r="J169" s="5">
-        <v>90</v>
-      </c>
-      <c r="K169" s="7">
-        <v>10.17334301466</v>
-      </c>
-      <c r="L169" s="3">
-        <v>5.47802734375</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C170" s="3">
-        <v>32.577710509300204</v>
-      </c>
-      <c r="D170" s="4">
-        <v>10.61</v>
-      </c>
-      <c r="E170" s="5">
-        <v>2</v>
-      </c>
-      <c r="F170" s="5">
-        <v>9</v>
-      </c>
-      <c r="G170" s="5">
-        <v>9</v>
-      </c>
-      <c r="H170" s="5">
-        <v>18</v>
-      </c>
-      <c r="I170" s="6">
-        <v>6318935.2949218797</v>
-      </c>
-      <c r="J170" s="5">
-        <v>858</v>
-      </c>
-      <c r="K170" s="7">
-        <v>95.276953824659998</v>
-      </c>
-      <c r="L170" s="3">
-        <v>6.82958984375</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C171" s="3">
-        <v>32.533873319625897</v>
-      </c>
-      <c r="D171" s="4">
-        <v>8.51</v>
-      </c>
-      <c r="E171" s="5">
-        <v>1</v>
-      </c>
-      <c r="F171" s="5">
-        <v>9</v>
-      </c>
-      <c r="G171" s="5">
-        <v>9</v>
-      </c>
-      <c r="H171" s="5">
-        <v>18</v>
-      </c>
-      <c r="I171" s="6">
-        <v>11319362.5208333</v>
-      </c>
-      <c r="J171" s="5">
-        <v>5890</v>
-      </c>
-      <c r="K171" s="7">
-        <v>628.69942192465999</v>
-      </c>
-      <c r="L171" s="3">
-        <v>6.15087890625</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C172" s="3">
-        <v>32.5221318006516</v>
-      </c>
-      <c r="D172" s="4">
-        <v>12.45</v>
-      </c>
-      <c r="E172" s="5">
-        <v>1</v>
-      </c>
-      <c r="F172" s="5">
-        <v>7</v>
-      </c>
-      <c r="G172" s="5">
-        <v>7</v>
-      </c>
-      <c r="H172" s="5">
-        <v>23</v>
-      </c>
-      <c r="I172" s="6">
-        <v>4867155.9850260401</v>
-      </c>
-      <c r="J172" s="5">
-        <v>683</v>
-      </c>
-      <c r="K172" s="7">
-        <v>74.633982534660007</v>
-      </c>
-      <c r="L172" s="3">
-        <v>7.70849609375</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C173" s="3">
-        <v>32.281157612800598</v>
-      </c>
-      <c r="D173" s="4">
-        <v>11.48</v>
-      </c>
-      <c r="E173" s="5">
-        <v>1</v>
-      </c>
-      <c r="F173" s="5">
-        <v>8</v>
-      </c>
-      <c r="G173" s="5">
-        <v>8</v>
-      </c>
-      <c r="H173" s="5">
-        <v>13</v>
-      </c>
-      <c r="I173" s="6">
-        <v>4428566.3463541698</v>
-      </c>
-      <c r="J173" s="5">
-        <v>793</v>
-      </c>
-      <c r="K173" s="7">
-        <v>93.175431324660096</v>
-      </c>
-      <c r="L173" s="3">
-        <v>5.65576171875</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C174" s="3">
-        <v>32.279089450836203</v>
-      </c>
-      <c r="D174" s="4">
-        <v>10.08</v>
-      </c>
-      <c r="E174" s="5">
-        <v>1</v>
-      </c>
-      <c r="F174" s="5">
-        <v>3</v>
-      </c>
-      <c r="G174" s="5">
-        <v>3</v>
-      </c>
-      <c r="H174" s="5">
-        <v>13</v>
-      </c>
-      <c r="I174" s="6">
-        <v>21377114.15625</v>
-      </c>
-      <c r="J174" s="5">
-        <v>367</v>
-      </c>
-      <c r="K174" s="7">
-        <v>39.299712164660001</v>
-      </c>
-      <c r="L174" s="3">
-        <v>5.71923828125</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C175" s="3">
-        <v>32.158918142318697</v>
-      </c>
-      <c r="D175" s="4">
-        <v>14.89</v>
-      </c>
-      <c r="E175" s="5">
-        <v>2</v>
-      </c>
-      <c r="F175" s="5">
-        <v>3</v>
-      </c>
-      <c r="G175" s="5">
-        <v>4</v>
-      </c>
-      <c r="H175" s="5">
-        <v>12</v>
-      </c>
-      <c r="I175" s="6">
-        <v>5964806.4166666698</v>
-      </c>
-      <c r="J175" s="5">
-        <v>356</v>
-      </c>
-      <c r="K175" s="7">
-        <v>37.473945174660003</v>
-      </c>
-      <c r="L175" s="3">
-        <v>7.09326171875</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C176" s="3">
-        <v>31.890304803848299</v>
-      </c>
-      <c r="D176" s="4">
-        <v>15.69</v>
-      </c>
-      <c r="E176" s="5">
-        <v>1</v>
-      </c>
-      <c r="F176" s="5">
-        <v>3</v>
-      </c>
-      <c r="G176" s="5">
-        <v>3</v>
-      </c>
-      <c r="H176" s="5">
-        <v>10</v>
-      </c>
-      <c r="I176" s="6">
-        <v>4503654.84375</v>
-      </c>
-      <c r="J176" s="5">
-        <v>204</v>
-      </c>
-      <c r="K176" s="7">
-        <v>23.192706404660001</v>
-      </c>
-      <c r="L176" s="3">
-        <v>5.10986328125</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C177" s="3">
-        <v>31.8358540534973</v>
-      </c>
-      <c r="D177" s="4">
-        <v>21.21</v>
-      </c>
-      <c r="E177" s="5">
-        <v>6</v>
-      </c>
-      <c r="F177" s="5">
-        <v>5</v>
-      </c>
-      <c r="G177" s="5">
-        <v>5</v>
-      </c>
-      <c r="H177" s="5">
-        <v>15</v>
-      </c>
-      <c r="I177" s="6">
-        <v>17247268.239583299</v>
-      </c>
-      <c r="J177" s="5">
-        <v>165</v>
-      </c>
-      <c r="K177" s="7">
-        <v>18.000886184660001</v>
-      </c>
-      <c r="L177" s="3">
-        <v>7.81103515625</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C178" s="3">
-        <v>31.759975671768199</v>
-      </c>
-      <c r="D178" s="4">
-        <v>28.19</v>
-      </c>
-      <c r="E178" s="5">
-        <v>2</v>
-      </c>
-      <c r="F178" s="5">
-        <v>4</v>
-      </c>
-      <c r="G178" s="5">
-        <v>4</v>
-      </c>
-      <c r="H178" s="5">
-        <v>11</v>
-      </c>
-      <c r="I178" s="6">
-        <v>7234471.9739583302</v>
-      </c>
-      <c r="J178" s="5">
-        <v>149</v>
-      </c>
-      <c r="K178" s="7">
-        <v>16.82683520466</v>
-      </c>
-      <c r="L178" s="3">
-        <v>4.22119140625</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C179" s="3">
-        <v>31.665364384651198</v>
-      </c>
-      <c r="D179" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="E179" s="5">
-        <v>1</v>
-      </c>
-      <c r="F179" s="5">
-        <v>4</v>
-      </c>
-      <c r="G179" s="5">
-        <v>4</v>
-      </c>
-      <c r="H179" s="5">
-        <v>14</v>
-      </c>
-      <c r="I179" s="6">
-        <v>9663497.8515625</v>
-      </c>
-      <c r="J179" s="5">
-        <v>241</v>
-      </c>
-      <c r="K179" s="7">
-        <v>26.905749344659998</v>
-      </c>
-      <c r="L179" s="3">
-        <v>5.17333984375</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C180" s="3">
-        <v>30.939889669418299</v>
-      </c>
-      <c r="D180" s="4">
-        <v>16.04</v>
-      </c>
-      <c r="E180" s="5">
-        <v>3</v>
-      </c>
-      <c r="F180" s="5">
-        <v>4</v>
-      </c>
-      <c r="G180" s="5">
-        <v>6</v>
-      </c>
-      <c r="H180" s="5">
-        <v>15</v>
-      </c>
-      <c r="I180" s="6">
-        <v>5862734.6953125</v>
-      </c>
-      <c r="J180" s="5">
-        <v>449</v>
-      </c>
-      <c r="K180" s="7">
-        <v>49.198411174660102</v>
-      </c>
-      <c r="L180" s="3">
-        <v>6.30322265625</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C181" s="3">
-        <v>30.6503616571426</v>
-      </c>
-      <c r="D181" s="4">
-        <v>19.73</v>
-      </c>
-      <c r="E181" s="5">
-        <v>1</v>
-      </c>
-      <c r="F181" s="5">
-        <v>5</v>
-      </c>
-      <c r="G181" s="5">
-        <v>5</v>
-      </c>
-      <c r="H181" s="5">
-        <v>13</v>
-      </c>
-      <c r="I181" s="6">
-        <v>8641891.2291666698</v>
-      </c>
-      <c r="J181" s="5">
-        <v>223</v>
-      </c>
-      <c r="K181" s="7">
-        <v>25.371131884659999</v>
-      </c>
-      <c r="L181" s="3">
-        <v>6.53662109375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" s="3">
-        <v>30.471269726753199</v>
-      </c>
-      <c r="D182" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E182" s="5">
-        <v>1</v>
-      </c>
-      <c r="F182" s="5">
-        <v>5</v>
-      </c>
-      <c r="G182" s="5">
-        <v>5</v>
-      </c>
-      <c r="H182" s="5">
-        <v>11</v>
-      </c>
-      <c r="I182" s="6">
-        <v>5414821.5052083302</v>
-      </c>
-      <c r="J182" s="5">
-        <v>335</v>
-      </c>
-      <c r="K182" s="7">
-        <v>36.044802984660002</v>
-      </c>
-      <c r="L182" s="3">
-        <v>9.27587890625</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C183" s="3">
-        <v>30.295768022537199</v>
-      </c>
-      <c r="D183" s="4">
-        <v>22.55</v>
-      </c>
-      <c r="E183" s="5">
-        <v>1</v>
-      </c>
-      <c r="F183" s="5">
-        <v>8</v>
-      </c>
-      <c r="G183" s="5">
-        <v>8</v>
-      </c>
-      <c r="H183" s="5">
-        <v>21</v>
-      </c>
-      <c r="I183" s="6">
-        <v>5091774.3802083302</v>
-      </c>
-      <c r="J183" s="5">
-        <v>337</v>
-      </c>
-      <c r="K183" s="7">
-        <v>37.516463444659998</v>
-      </c>
-      <c r="L183" s="3">
-        <v>6.81494140625</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C184" s="3">
-        <v>30.2378489971161</v>
-      </c>
-      <c r="D184" s="4">
-        <v>24.73</v>
-      </c>
-      <c r="E184" s="5">
-        <v>2</v>
-      </c>
-      <c r="F184" s="5">
-        <v>6</v>
-      </c>
-      <c r="G184" s="5">
-        <v>7</v>
-      </c>
-      <c r="H184" s="5">
-        <v>15</v>
-      </c>
-      <c r="I184" s="6">
-        <v>10342216.4869792</v>
-      </c>
-      <c r="J184" s="5">
-        <v>372</v>
-      </c>
-      <c r="K184" s="7">
-        <v>38.723051544660002</v>
-      </c>
-      <c r="L184" s="3">
-        <v>9.12939453125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C185" s="3">
-        <v>30.098055481910698</v>
-      </c>
-      <c r="D185" s="4">
-        <v>19.16</v>
-      </c>
-      <c r="E185" s="5">
-        <v>1</v>
-      </c>
-      <c r="F185" s="5">
-        <v>5</v>
-      </c>
-      <c r="G185" s="5">
-        <v>5</v>
-      </c>
-      <c r="H185" s="5">
-        <v>13</v>
-      </c>
-      <c r="I185" s="6">
-        <v>9612460.7239583302</v>
-      </c>
-      <c r="J185" s="5">
-        <v>334</v>
-      </c>
-      <c r="K185" s="7">
-        <v>36.403021954659998</v>
-      </c>
-      <c r="L185" s="3">
-        <v>7.35693359375</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" s="3">
-        <v>29.837562084198002</v>
-      </c>
-      <c r="D186" s="4">
-        <v>13.66</v>
-      </c>
-      <c r="E186" s="5">
-        <v>1</v>
-      </c>
-      <c r="F186" s="5">
-        <v>6</v>
-      </c>
-      <c r="G186" s="5">
-        <v>6</v>
-      </c>
-      <c r="H186" s="5">
-        <v>15</v>
-      </c>
-      <c r="I186" s="6">
-        <v>4416065.203125</v>
-      </c>
-      <c r="J186" s="5">
-        <v>483</v>
-      </c>
-      <c r="K186" s="7">
-        <v>53.105955804659999</v>
-      </c>
-      <c r="L186" s="3">
-        <v>7.22509765625</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C187" s="3">
-        <v>29.433322668075601</v>
-      </c>
-      <c r="D187" s="4">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="E187" s="5">
-        <v>1</v>
-      </c>
-      <c r="F187" s="5">
-        <v>6</v>
-      </c>
-      <c r="G187" s="5">
-        <v>6</v>
-      </c>
-      <c r="H187" s="5">
-        <v>16</v>
-      </c>
-      <c r="I187" s="6">
-        <v>3101505.0208333302</v>
-      </c>
-      <c r="J187" s="5">
-        <v>299</v>
-      </c>
-      <c r="K187" s="7">
-        <v>33.275917704660003</v>
-      </c>
-      <c r="L187" s="3">
-        <v>9.83251953125</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C188" s="3">
-        <v>29.246875405311599</v>
-      </c>
-      <c r="D188" s="4">
-        <v>17.97</v>
-      </c>
-      <c r="E188" s="5">
-        <v>1</v>
-      </c>
-      <c r="F188" s="5">
-        <v>4</v>
-      </c>
-      <c r="G188" s="5">
-        <v>4</v>
-      </c>
-      <c r="H188" s="5">
-        <v>11</v>
-      </c>
-      <c r="I188" s="6">
-        <v>5911492.078125</v>
-      </c>
-      <c r="J188" s="5">
-        <v>295</v>
-      </c>
-      <c r="K188" s="7">
-        <v>32.833434644660002</v>
-      </c>
-      <c r="L188" s="3">
-        <v>4.86865234375</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C189" s="3">
-        <v>28.8645195960999</v>
-      </c>
-      <c r="D189" s="4">
-        <v>12.57</v>
-      </c>
-      <c r="E189" s="5">
-        <v>23</v>
-      </c>
-      <c r="F189" s="5">
-        <v>0</v>
-      </c>
-      <c r="G189" s="5">
-        <v>3</v>
-      </c>
-      <c r="H189" s="5">
-        <v>10</v>
-      </c>
-      <c r="I189" s="6">
-        <v>5697902.6822916698</v>
-      </c>
-      <c r="J189" s="5">
-        <v>366</v>
-      </c>
-      <c r="K189" s="7">
-        <v>41.06926247466</v>
-      </c>
-      <c r="L189" s="3">
-        <v>6.11279296875</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C190" s="3">
-        <v>28.7938423156738</v>
-      </c>
-      <c r="D190" s="4">
-        <v>30.31</v>
-      </c>
-      <c r="E190" s="5">
-        <v>3</v>
-      </c>
-      <c r="F190" s="5">
-        <v>6</v>
-      </c>
-      <c r="G190" s="5">
-        <v>6</v>
-      </c>
-      <c r="H190" s="5">
-        <v>15</v>
-      </c>
-      <c r="I190" s="6">
-        <v>7559180.3229166698</v>
-      </c>
-      <c r="J190" s="5">
-        <v>254</v>
-      </c>
-      <c r="K190" s="7">
-        <v>28.785836504660001</v>
-      </c>
-      <c r="L190" s="3">
-        <v>7.18115234375</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C191" s="3">
-        <v>28.781367897987401</v>
-      </c>
-      <c r="D191" s="4">
-        <v>25.85</v>
-      </c>
-      <c r="E191" s="5">
-        <v>1</v>
-      </c>
-      <c r="F191" s="5">
-        <v>4</v>
-      </c>
-      <c r="G191" s="5">
-        <v>4</v>
-      </c>
-      <c r="H191" s="5">
-        <v>14</v>
-      </c>
-      <c r="I191" s="6">
-        <v>6701683.5989583302</v>
-      </c>
-      <c r="J191" s="5">
-        <v>294</v>
-      </c>
-      <c r="K191" s="7">
-        <v>32.554843324659899</v>
-      </c>
-      <c r="L191" s="3">
-        <v>4.77978515625</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C192" s="3">
-        <v>28.366997241973898</v>
-      </c>
-      <c r="D192" s="4">
-        <v>15.19</v>
-      </c>
-      <c r="E192" s="5">
-        <v>41</v>
-      </c>
-      <c r="F192" s="5">
-        <v>1</v>
-      </c>
-      <c r="G192" s="5">
-        <v>4</v>
-      </c>
-      <c r="H192" s="5">
-        <v>12</v>
-      </c>
-      <c r="I192" s="6">
-        <v>5579512.6614583302</v>
-      </c>
-      <c r="J192" s="5">
-        <v>362</v>
-      </c>
-      <c r="K192" s="7">
-        <v>40.198948244660102</v>
-      </c>
-      <c r="L192" s="3">
-        <v>6.30322265625</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C193" s="3">
-        <v>28.317055940628101</v>
-      </c>
-      <c r="D193" s="4">
-        <v>20.78</v>
-      </c>
-      <c r="E193" s="5">
-        <v>1</v>
-      </c>
-      <c r="F193" s="5">
-        <v>4</v>
-      </c>
-      <c r="G193" s="5">
-        <v>4</v>
-      </c>
-      <c r="H193" s="5">
-        <v>11</v>
-      </c>
-      <c r="I193" s="6">
-        <v>6676719.4082031297</v>
-      </c>
-      <c r="J193" s="5">
-        <v>332</v>
-      </c>
-      <c r="K193" s="7">
-        <v>31.53586663466</v>
-      </c>
-      <c r="L193" s="3">
-        <v>4.44970703125</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C194" s="3">
-        <v>28.192491292953498</v>
-      </c>
-      <c r="D194" s="4">
-        <v>30.77</v>
-      </c>
-      <c r="E194" s="5">
-        <v>1</v>
-      </c>
-      <c r="F194" s="5">
-        <v>5</v>
-      </c>
-      <c r="G194" s="5">
-        <v>5</v>
-      </c>
-      <c r="H194" s="5">
-        <v>14</v>
-      </c>
-      <c r="I194" s="6">
-        <v>5933122.4270833302</v>
-      </c>
-      <c r="J194" s="5">
-        <v>169</v>
-      </c>
-      <c r="K194" s="7">
-        <v>19.564049454660001</v>
-      </c>
-      <c r="L194" s="3">
-        <v>9.51025390625</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C195" s="3">
-        <v>28.113777279853799</v>
-      </c>
-      <c r="D195" s="4">
-        <v>9.07</v>
-      </c>
-      <c r="E195" s="5">
-        <v>1</v>
-      </c>
-      <c r="F195" s="5">
-        <v>5</v>
-      </c>
-      <c r="G195" s="5">
-        <v>5</v>
-      </c>
-      <c r="H195" s="5">
-        <v>16</v>
-      </c>
-      <c r="I195" s="6">
-        <v>5082606.1041666698</v>
-      </c>
-      <c r="J195" s="5">
-        <v>474</v>
-      </c>
-      <c r="K195" s="7">
-        <v>52.929032024660003</v>
-      </c>
-      <c r="L195" s="3">
-        <v>5.54150390625</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="3">
-        <v>27.974341392517101</v>
-      </c>
-      <c r="D196" s="4">
-        <v>35.29</v>
-      </c>
-      <c r="E196" s="5">
-        <v>1</v>
-      </c>
-      <c r="F196" s="5">
-        <v>3</v>
-      </c>
-      <c r="G196" s="5">
-        <v>3</v>
-      </c>
-      <c r="H196" s="5">
-        <v>13</v>
-      </c>
-      <c r="I196" s="6">
-        <v>6255164.6640625</v>
-      </c>
-      <c r="J196" s="5">
-        <v>102</v>
-      </c>
-      <c r="K196" s="7">
-        <v>10.92487173466</v>
-      </c>
-      <c r="L196" s="3">
-        <v>8.92431640625</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C197" s="3">
-        <v>27.792284131050099</v>
-      </c>
-      <c r="D197" s="4">
-        <v>27.71</v>
-      </c>
-      <c r="E197" s="5">
-        <v>1</v>
-      </c>
-      <c r="F197" s="5">
-        <v>6</v>
-      </c>
-      <c r="G197" s="5">
-        <v>6</v>
-      </c>
-      <c r="H197" s="5">
-        <v>11</v>
-      </c>
-      <c r="I197" s="6">
-        <v>5157400.3125</v>
-      </c>
-      <c r="J197" s="5">
-        <v>249</v>
-      </c>
-      <c r="K197" s="7">
-        <v>28.705016124659998</v>
-      </c>
-      <c r="L197" s="3">
-        <v>6.02392578125</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C198" s="3">
-        <v>27.727844834327701</v>
-      </c>
-      <c r="D198" s="4">
-        <v>13.05</v>
-      </c>
-      <c r="E198" s="5">
-        <v>2</v>
-      </c>
-      <c r="F198" s="5">
-        <v>6</v>
-      </c>
-      <c r="G198" s="5">
-        <v>6</v>
-      </c>
-      <c r="H198" s="5">
-        <v>14</v>
-      </c>
-      <c r="I198" s="6">
-        <v>5819833.2291666698</v>
-      </c>
-      <c r="J198" s="5">
-        <v>475</v>
-      </c>
-      <c r="K198" s="7">
-        <v>51.868695014659998</v>
-      </c>
-      <c r="L198" s="3">
-        <v>8.06005859375</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C199" s="3">
-        <v>27.601365327835101</v>
-      </c>
-      <c r="D199" s="4">
-        <v>12.67</v>
-      </c>
-      <c r="E199" s="5">
-        <v>1</v>
-      </c>
-      <c r="F199" s="5">
-        <v>7</v>
-      </c>
-      <c r="G199" s="5">
-        <v>7</v>
-      </c>
-      <c r="H199" s="5">
-        <v>11</v>
-      </c>
-      <c r="I199" s="6">
-        <v>3564412.921875</v>
-      </c>
-      <c r="J199" s="5">
-        <v>679</v>
-      </c>
-      <c r="K199" s="7">
-        <v>73.634776304660093</v>
-      </c>
-      <c r="L199" s="3">
-        <v>6.16357421875</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C200" s="3">
-        <v>27.414692997932399</v>
-      </c>
-      <c r="D200" s="4">
-        <v>17.72</v>
-      </c>
-      <c r="E200" s="5">
-        <v>1</v>
-      </c>
-      <c r="F200" s="5">
-        <v>6</v>
-      </c>
-      <c r="G200" s="5">
-        <v>6</v>
-      </c>
-      <c r="H200" s="5">
-        <v>15</v>
-      </c>
-      <c r="I200" s="6">
-        <v>11608633.1640625</v>
-      </c>
-      <c r="J200" s="5">
-        <v>412</v>
-      </c>
-      <c r="K200" s="7">
-        <v>44.523627824659997</v>
-      </c>
-      <c r="L200" s="3">
-        <v>6.53662109375</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C201" s="3">
-        <v>27.370885014534</v>
-      </c>
-      <c r="D201" s="4">
-        <v>13.85</v>
-      </c>
-      <c r="E201" s="5">
-        <v>1</v>
-      </c>
-      <c r="F201" s="5">
-        <v>4</v>
-      </c>
-      <c r="G201" s="5">
-        <v>4</v>
-      </c>
-      <c r="H201" s="5">
-        <v>7</v>
-      </c>
-      <c r="I201" s="6">
-        <v>4061736.515625</v>
-      </c>
-      <c r="J201" s="5">
-        <v>390</v>
-      </c>
-      <c r="K201" s="7">
-        <v>43.44982149466</v>
-      </c>
-      <c r="L201" s="3">
-        <v>5.60498046875</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C202" s="3">
-        <v>27.231616735458399</v>
-      </c>
-      <c r="D202" s="4">
-        <v>23.79</v>
-      </c>
-      <c r="E202" s="5">
-        <v>1</v>
-      </c>
-      <c r="F202" s="5">
-        <v>6</v>
-      </c>
-      <c r="G202" s="5">
-        <v>6</v>
-      </c>
-      <c r="H202" s="5">
-        <v>16</v>
-      </c>
-      <c r="I202" s="6">
-        <v>2416850.46875</v>
-      </c>
-      <c r="J202" s="5">
-        <v>248</v>
-      </c>
-      <c r="K202" s="7">
-        <v>29.207199084660001</v>
-      </c>
-      <c r="L202" s="3">
-        <v>10.65283203125</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C203" s="3">
-        <v>27.061324000358599</v>
-      </c>
-      <c r="D203" s="4">
-        <v>12.56</v>
-      </c>
-      <c r="E203" s="5">
-        <v>1</v>
-      </c>
-      <c r="F203" s="5">
-        <v>1</v>
-      </c>
-      <c r="G203" s="5">
-        <v>5</v>
-      </c>
-      <c r="H203" s="5">
-        <v>12</v>
-      </c>
-      <c r="I203" s="6">
-        <v>3349580.5572916698</v>
-      </c>
-      <c r="J203" s="5">
-        <v>406</v>
-      </c>
-      <c r="K203" s="7">
-        <v>46.124557814660101</v>
-      </c>
-      <c r="L203" s="3">
-        <v>5.47802734375</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C204" s="3">
-        <v>27.0369490385056</v>
-      </c>
-      <c r="D204" s="4">
-        <v>15.89</v>
-      </c>
-      <c r="E204" s="5">
-        <v>1</v>
-      </c>
-      <c r="F204" s="5">
-        <v>2</v>
-      </c>
-      <c r="G204" s="5">
-        <v>2</v>
-      </c>
-      <c r="H204" s="5">
-        <v>10</v>
-      </c>
-      <c r="I204" s="6">
-        <v>8468453.46875</v>
-      </c>
-      <c r="J204" s="5">
-        <v>151</v>
-      </c>
-      <c r="K204" s="7">
-        <v>16.262533684659999</v>
-      </c>
-      <c r="L204" s="3">
-        <v>10.05224609375</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C205" s="3">
-        <v>26.857430338859601</v>
-      </c>
-      <c r="D205" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="E205" s="5">
-        <v>2</v>
-      </c>
-      <c r="F205" s="5">
-        <v>8</v>
-      </c>
-      <c r="G205" s="5">
-        <v>8</v>
-      </c>
-      <c r="H205" s="5">
-        <v>11</v>
-      </c>
-      <c r="I205" s="6">
-        <v>2980404.40234375</v>
-      </c>
-      <c r="J205" s="5">
-        <v>1657</v>
-      </c>
-      <c r="K205" s="7">
-        <v>189.13380622466099</v>
-      </c>
-      <c r="L205" s="3">
-        <v>6.48095703125</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C206" s="3">
-        <v>26.217064261436501</v>
-      </c>
-      <c r="D206" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E206" s="5">
-        <v>1</v>
-      </c>
-      <c r="F206" s="5">
-        <v>5</v>
-      </c>
-      <c r="G206" s="5">
-        <v>6</v>
-      </c>
-      <c r="H206" s="5">
-        <v>13</v>
-      </c>
-      <c r="I206" s="6">
-        <v>5723410.6666666698</v>
-      </c>
-      <c r="J206" s="5">
-        <v>707</v>
-      </c>
-      <c r="K206" s="7">
-        <v>76.101630584660199</v>
-      </c>
-      <c r="L206" s="3">
-        <v>9.43701171875</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C207" s="3">
-        <v>26.1880125999451</v>
-      </c>
-      <c r="D207" s="4">
-        <v>13.89</v>
-      </c>
-      <c r="E207" s="5">
-        <v>1</v>
-      </c>
-      <c r="F207" s="5">
-        <v>3</v>
-      </c>
-      <c r="G207" s="5">
-        <v>3</v>
-      </c>
-      <c r="H207" s="5">
-        <v>12</v>
-      </c>
-      <c r="I207" s="6">
-        <v>6676980.4427083302</v>
-      </c>
-      <c r="J207" s="5">
-        <v>216</v>
-      </c>
-      <c r="K207" s="7">
-        <v>24.407618904660001</v>
-      </c>
-      <c r="L207" s="3">
-        <v>7.48876953125</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C208" s="3">
-        <v>25.793364286422701</v>
-      </c>
-      <c r="D208" s="4">
-        <v>14.77</v>
-      </c>
-      <c r="E208" s="5">
-        <v>1</v>
-      </c>
-      <c r="F208" s="5">
-        <v>5</v>
-      </c>
-      <c r="G208" s="5">
-        <v>5</v>
-      </c>
-      <c r="H208" s="5">
-        <v>10</v>
-      </c>
-      <c r="I208" s="6">
-        <v>3938900.0677083302</v>
-      </c>
-      <c r="J208" s="5">
-        <v>440</v>
-      </c>
-      <c r="K208" s="7">
-        <v>48.09126437466</v>
-      </c>
-      <c r="L208" s="3">
-        <v>5.08447265625</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C209" s="3">
-        <v>25.369201183319099</v>
-      </c>
-      <c r="D209" s="4">
-        <v>6.68</v>
-      </c>
-      <c r="E209" s="5">
-        <v>1</v>
-      </c>
-      <c r="F209" s="5">
-        <v>2</v>
-      </c>
-      <c r="G209" s="5">
-        <v>4</v>
-      </c>
-      <c r="H209" s="5">
-        <v>9</v>
-      </c>
-      <c r="I209" s="6">
-        <v>12840183.5507813</v>
-      </c>
-      <c r="J209" s="5">
-        <v>644</v>
-      </c>
-      <c r="K209" s="7">
-        <v>65.999003954660097</v>
-      </c>
-      <c r="L209" s="3">
-        <v>8.11865234375</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C210" s="3">
-        <v>25.322372913360599</v>
-      </c>
-      <c r="D210" s="4">
-        <v>11.95</v>
-      </c>
-      <c r="E210" s="5">
-        <v>1</v>
-      </c>
-      <c r="F210" s="5">
-        <v>5</v>
-      </c>
-      <c r="G210" s="5">
-        <v>6</v>
-      </c>
-      <c r="H210" s="5">
-        <v>10</v>
-      </c>
-      <c r="I210" s="6">
-        <v>3639209.234375</v>
-      </c>
-      <c r="J210" s="5">
-        <v>586</v>
-      </c>
-      <c r="K210" s="7">
-        <v>66.367625704660099</v>
-      </c>
-      <c r="L210" s="3">
-        <v>5.16064453125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C211" s="3">
-        <v>25.136059761047399</v>
-      </c>
-      <c r="D211" s="4">
-        <v>32.24</v>
-      </c>
-      <c r="E211" s="5">
-        <v>1</v>
-      </c>
-      <c r="F211" s="5">
-        <v>5</v>
-      </c>
-      <c r="G211" s="5">
-        <v>5</v>
-      </c>
-      <c r="H211" s="5">
-        <v>10</v>
-      </c>
-      <c r="I211" s="6">
-        <v>6318017.5052083302</v>
-      </c>
-      <c r="J211" s="5">
-        <v>152</v>
-      </c>
-      <c r="K211" s="7">
-        <v>17.707861034659999</v>
-      </c>
-      <c r="L211" s="3">
-        <v>10.98974609375</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C212" s="3">
-        <v>24.6978807449341</v>
-      </c>
-      <c r="D212" s="4">
-        <v>19.43</v>
-      </c>
-      <c r="E212" s="5">
-        <v>1</v>
-      </c>
-      <c r="F212" s="5">
-        <v>4</v>
-      </c>
-      <c r="G212" s="5">
-        <v>4</v>
-      </c>
-      <c r="H212" s="5">
-        <v>10</v>
-      </c>
-      <c r="I212" s="6">
-        <v>5810265.75</v>
-      </c>
-      <c r="J212" s="5">
-        <v>211</v>
-      </c>
-      <c r="K212" s="7">
-        <v>24.24652727466</v>
-      </c>
-      <c r="L212" s="3">
-        <v>11.64892578125</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C213" s="3">
-        <v>24.585302233696002</v>
-      </c>
-      <c r="D213" s="4">
-        <v>33.549999999999997</v>
-      </c>
-      <c r="E213" s="5">
-        <v>1</v>
-      </c>
-      <c r="F213" s="5">
-        <v>1</v>
-      </c>
-      <c r="G213" s="5">
-        <v>4</v>
-      </c>
-      <c r="H213" s="5">
-        <v>14</v>
-      </c>
-      <c r="I213" s="6">
-        <v>12005637.0208333</v>
-      </c>
-      <c r="J213" s="5">
-        <v>152</v>
-      </c>
-      <c r="K213" s="7">
-        <v>17.137672074659999</v>
-      </c>
-      <c r="L213" s="3">
-        <v>6.18896484375</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C214" s="3">
-        <v>24.510829448700001</v>
-      </c>
-      <c r="D214" s="4">
-        <v>9.82</v>
-      </c>
-      <c r="E214" s="5">
-        <v>2</v>
-      </c>
-      <c r="F214" s="5">
-        <v>2</v>
-      </c>
-      <c r="G214" s="5">
-        <v>2</v>
-      </c>
-      <c r="H214" s="5">
-        <v>9</v>
-      </c>
-      <c r="I214" s="6">
-        <v>5200858.4296875</v>
-      </c>
-      <c r="J214" s="5">
-        <v>275</v>
-      </c>
-      <c r="K214" s="7">
-        <v>30.49546811466</v>
-      </c>
-      <c r="L214" s="3">
-        <v>7.10791015625</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C215" s="3">
-        <v>24.2665085792542</v>
-      </c>
-      <c r="D215" s="4">
-        <v>21.62</v>
-      </c>
-      <c r="E215" s="5">
-        <v>1</v>
-      </c>
-      <c r="F215" s="5">
-        <v>2</v>
-      </c>
-      <c r="G215" s="5">
-        <v>2</v>
-      </c>
-      <c r="H215" s="5">
-        <v>9</v>
-      </c>
-      <c r="I215" s="6">
-        <v>12823114.1484375</v>
-      </c>
-      <c r="J215" s="5">
-        <v>111</v>
-      </c>
-      <c r="K215" s="7">
-        <v>11.927824664659999</v>
-      </c>
-      <c r="L215" s="3">
-        <v>5.08447265625</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C216" s="3">
-        <v>24.148185014724699</v>
-      </c>
-      <c r="D216" s="4">
-        <v>7.76</v>
-      </c>
-      <c r="E216" s="5">
-        <v>1</v>
-      </c>
-      <c r="F216" s="5">
-        <v>4</v>
-      </c>
-      <c r="G216" s="5">
-        <v>4</v>
-      </c>
-      <c r="H216" s="5">
-        <v>11</v>
-      </c>
-      <c r="I216" s="6">
-        <v>3939822.7447916698</v>
-      </c>
-      <c r="J216" s="5">
-        <v>644</v>
-      </c>
-      <c r="K216" s="7">
-        <v>71.912153844659997</v>
-      </c>
-      <c r="L216" s="3">
-        <v>6.81494140625</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C217" s="3">
-        <v>23.757167220115701</v>
-      </c>
-      <c r="D217" s="4">
-        <v>5.04</v>
-      </c>
-      <c r="E217" s="5">
-        <v>2</v>
-      </c>
-      <c r="F217" s="5">
-        <v>6</v>
-      </c>
-      <c r="G217" s="5">
-        <v>6</v>
-      </c>
-      <c r="H217" s="5">
-        <v>15</v>
-      </c>
-      <c r="I217" s="6">
-        <v>2813401.2083333302</v>
-      </c>
-      <c r="J217" s="5">
-        <v>1231</v>
-      </c>
-      <c r="K217" s="7">
-        <v>139.00470380466001</v>
-      </c>
-      <c r="L217" s="3">
-        <v>6.60986328125</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C218" s="3">
-        <v>23.702557325363198</v>
-      </c>
-      <c r="D218" s="4">
-        <v>14.29</v>
-      </c>
-      <c r="E218" s="5">
-        <v>1</v>
-      </c>
-      <c r="F218" s="5">
-        <v>3</v>
-      </c>
-      <c r="G218" s="5">
-        <v>3</v>
-      </c>
-      <c r="H218" s="5">
-        <v>9</v>
-      </c>
-      <c r="I218" s="6">
-        <v>5240843.2265625</v>
-      </c>
-      <c r="J218" s="5">
-        <v>266</v>
-      </c>
-      <c r="K218" s="7">
-        <v>28.958850054660001</v>
-      </c>
-      <c r="L218" s="3">
-        <v>5.85888671875</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C219" s="3">
-        <v>22.9999003410339</v>
-      </c>
-      <c r="D219" s="4">
-        <v>19.53</v>
-      </c>
-      <c r="E219" s="5">
-        <v>1</v>
-      </c>
-      <c r="F219" s="5">
-        <v>5</v>
-      </c>
-      <c r="G219" s="5">
-        <v>5</v>
-      </c>
-      <c r="H219" s="5">
-        <v>9</v>
-      </c>
-      <c r="I219" s="6">
-        <v>9433059.65234375</v>
-      </c>
-      <c r="J219" s="5">
-        <v>338</v>
-      </c>
-      <c r="K219" s="7">
-        <v>35.480734414659999</v>
-      </c>
-      <c r="L219" s="3">
-        <v>8.67529296875</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C220" s="3">
-        <v>22.506759762763998</v>
-      </c>
-      <c r="D220" s="4">
-        <v>22.89</v>
-      </c>
-      <c r="E220" s="5">
-        <v>22</v>
-      </c>
-      <c r="F220" s="5">
-        <v>2</v>
-      </c>
-      <c r="G220" s="5">
-        <v>4</v>
-      </c>
-      <c r="H220" s="5">
-        <v>11</v>
-      </c>
-      <c r="I220" s="6">
-        <v>9164485.7135416698</v>
-      </c>
-      <c r="J220" s="5">
-        <v>201</v>
-      </c>
-      <c r="K220" s="7">
-        <v>22.003032724659999</v>
-      </c>
-      <c r="L220" s="3">
-        <v>5.42724609375</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C221" s="3">
-        <v>22.4937744140625</v>
-      </c>
-      <c r="D221" s="4">
-        <v>47.24</v>
-      </c>
-      <c r="E221" s="5">
-        <v>1</v>
-      </c>
-      <c r="F221" s="5">
-        <v>5</v>
-      </c>
-      <c r="G221" s="5">
-        <v>5</v>
-      </c>
-      <c r="H221" s="5">
-        <v>8</v>
-      </c>
-      <c r="I221" s="6">
-        <v>14196627.46875</v>
-      </c>
-      <c r="J221" s="5">
-        <v>127</v>
-      </c>
-      <c r="K221" s="7">
-        <v>13.32277485466</v>
-      </c>
-      <c r="L221" s="3">
-        <v>4.85595703125</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C222" s="3">
-        <v>22.314181208610499</v>
-      </c>
-      <c r="D222" s="4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E222" s="5">
-        <v>2</v>
-      </c>
-      <c r="F222" s="5">
-        <v>5</v>
-      </c>
-      <c r="G222" s="5">
-        <v>5</v>
-      </c>
-      <c r="H222" s="5">
-        <v>9</v>
-      </c>
-      <c r="I222" s="6">
-        <v>3282180.1953125</v>
-      </c>
-      <c r="J222" s="5">
-        <v>2541</v>
-      </c>
-      <c r="K222" s="7">
-        <v>269.59906266465998</v>
-      </c>
-      <c r="L222" s="3">
-        <v>6.07470703125</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C223" s="3">
-        <v>22.282659769058199</v>
-      </c>
-      <c r="D223" s="4">
-        <v>20.27</v>
-      </c>
-      <c r="E223" s="5">
-        <v>1</v>
-      </c>
-      <c r="F223" s="5">
-        <v>4</v>
-      </c>
-      <c r="G223" s="5">
-        <v>4</v>
-      </c>
-      <c r="H223" s="5">
-        <v>8</v>
-      </c>
-      <c r="I223" s="6">
-        <v>4657169.4140625</v>
-      </c>
-      <c r="J223" s="5">
-        <v>222</v>
-      </c>
-      <c r="K223" s="7">
-        <v>24.706555144660001</v>
-      </c>
-      <c r="L223" s="3">
-        <v>8.25048828125</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C224" s="3">
-        <v>22.276168704032902</v>
-      </c>
-      <c r="D224" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="E224" s="5">
-        <v>1</v>
-      </c>
-      <c r="F224" s="5">
-        <v>4</v>
-      </c>
-      <c r="G224" s="5">
-        <v>4</v>
-      </c>
-      <c r="H224" s="5">
-        <v>9</v>
-      </c>
-      <c r="I224" s="6">
-        <v>4312694.73828125</v>
-      </c>
-      <c r="J224" s="5">
-        <v>500</v>
-      </c>
-      <c r="K224" s="7">
-        <v>55.11939638466</v>
-      </c>
-      <c r="L224" s="3">
-        <v>6.55126953125</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C225" s="3">
-        <v>22.0658395290375</v>
-      </c>
-      <c r="D225" s="4">
-        <v>14.22</v>
-      </c>
-      <c r="E225" s="5">
-        <v>1</v>
-      </c>
-      <c r="F225" s="5">
-        <v>6</v>
-      </c>
-      <c r="G225" s="5">
-        <v>6</v>
-      </c>
-      <c r="H225" s="5">
-        <v>12</v>
-      </c>
-      <c r="I225" s="6">
-        <v>5093999.2239583302</v>
-      </c>
-      <c r="J225" s="5">
-        <v>464</v>
-      </c>
-      <c r="K225" s="7">
-        <v>52.568866784660102</v>
-      </c>
-      <c r="L225" s="3">
-        <v>6.71240234375</v>
       </c>
     </row>
   </sheetData>
